--- a/Share/Luban/Configs/Datas/Item.xlsx
+++ b/Share/Luban/Configs/Datas/Item.xlsx
@@ -1373,7 +1373,9 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
